--- a/~documents/latlong_to_meter_conversions.xlsx
+++ b/~documents/latlong_to_meter_conversions.xlsx
@@ -2039,15 +2039,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2069,16 +2069,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>781050</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2366,7 +2366,7 @@
   <dimension ref="A1:S26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2459,11 +2459,11 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <f>$B$21*B2*COS($A$2)</f>
+        <f t="shared" ref="G2:G18" si="0">$B$21*B2*COS($A$2)</f>
         <v>-53931.416584677594</v>
       </c>
       <c r="H2">
-        <f>$B$21*A2</f>
+        <f t="shared" ref="H2:H18" si="1">$B$21*A2</f>
         <v>271153.78260905214</v>
       </c>
       <c r="I2">
@@ -2475,7 +2475,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <f>A2*PI()/180 - $A$2*PI()/180</f>
+        <f t="shared" ref="K2:K18" si="2">A2*PI()/180 - $A$2*PI()/180</f>
         <v>0</v>
       </c>
       <c r="L2">
@@ -2513,59 +2513,59 @@
         <v>-83.445320289999998</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:C18" si="0">(A3-$A$2)*$B$22</f>
+        <f t="shared" ref="C3:C18" si="3">(A3-$A$2)*$B$22</f>
         <v>1.9689599857431832</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D18" si="1">(B3-$B$2)*$B$23</f>
+        <f t="shared" ref="D3:D18" si="4">(B3-$B$2)*$B$23</f>
         <v>-1.2664675056829768</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E18" si="2">(A3-$A$2)*$B$25</f>
+        <f t="shared" ref="E3:E18" si="5">(A3-$A$2)*$B$25</f>
         <v>1.9689593850455607</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F18" si="3">(B3-$B$2)*$B$26</f>
+        <f t="shared" ref="F3:F18" si="6">(B3-$B$2)*$B$26</f>
         <v>-0.45463470541463041</v>
       </c>
       <c r="G3">
-        <f>$B$21*B3*COS($A$2)</f>
+        <f t="shared" si="0"/>
         <v>-53931.442546900995</v>
       </c>
       <c r="H3">
-        <f>$B$21*A3</f>
+        <f t="shared" si="1"/>
         <v>271153.89505560743</v>
       </c>
       <c r="I3">
-        <f t="shared" ref="I3:I18" si="4">(G3-$G$2)*1000</f>
+        <f t="shared" ref="I3:I18" si="7">(G3-$G$2)*1000</f>
         <v>-25.962223400711082</v>
       </c>
       <c r="J3">
-        <f t="shared" ref="J3:J18" si="5">(H3-$H$2)*1000</f>
+        <f t="shared" ref="J3:J18" si="8">(H3-$H$2)*1000</f>
         <v>112.44655528571457</v>
       </c>
       <c r="K3">
-        <f>A3*PI()/180 - $A$2*PI()/180</f>
+        <f t="shared" si="2"/>
         <v>3.0770154713088971E-7</v>
       </c>
       <c r="L3">
-        <f t="shared" ref="L3:L18" si="6">B3*PI()/180 - $B$2*PI()/180</f>
+        <f t="shared" ref="L3:L18" si="9">B3*PI()/180 - $B$2*PI()/180</f>
         <v>-7.0109876038060293E-7</v>
       </c>
       <c r="M3" t="e">
-        <f t="shared" ref="M3:M18" si="7">SIN(A3/2)*SIN(A3/2)+COS($A$2*PI()/180)*COS(#REF!*PI()/180)*SIN(B3/2)*SIN(B3/2)</f>
+        <f t="shared" ref="M3" si="10">SIN(A3/2)*SIN(A3/2)+COS($A$2*PI()/180)*COS(#REF!*PI()/180)*SIN(B3/2)*SIN(B3/2)</f>
         <v>#REF!</v>
       </c>
       <c r="N3" t="e">
-        <f t="shared" ref="N3:P18" si="8">2*ATAN2(SQRT(M3),SQRT(1-M3))</f>
+        <f t="shared" ref="N3:P18" si="11">2*ATAN2(SQRT(M3),SQRT(1-M3))</f>
         <v>#REF!</v>
       </c>
       <c r="O3">
-        <f t="shared" ref="O3:O18" si="9">SIN(K3/2)*SIN(K3/2)+COS($A$2*PI()/180)*COS(A3*PI()/180)*SIN(L3/2)*SIN(L3/2)</f>
+        <f t="shared" ref="O3:O18" si="12">SIN(K3/2)*SIN(K3/2)+COS($A$2*PI()/180)*COS(A3*PI()/180)*SIN(L3/2)*SIN(L3/2)</f>
         <v>9.0439745643134737E-14</v>
       </c>
       <c r="P3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>3.1415920521257608</v>
       </c>
     </row>
@@ -2577,59 +2577,59 @@
         <v>-83.445385549999997</v>
       </c>
       <c r="C4">
+        <f t="shared" si="3"/>
+        <v>5.9817071374632267</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="4"/>
+        <v>-3.3239648778085984</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="5"/>
+        <v>5.9817053125418056</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="6"/>
+        <v>-1.1932321881532524</v>
+      </c>
+      <c r="G4">
         <f t="shared" si="0"/>
-        <v>5.9817071374632267</v>
-      </c>
-      <c r="D4">
+        <v>-53931.484725011505</v>
+      </c>
+      <c r="H4">
         <f t="shared" si="1"/>
-        <v>-3.3239648778085984</v>
-      </c>
-      <c r="E4">
+        <v>271154.12422206986</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="7"/>
+        <v>-68.140333911287598</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="8"/>
+        <v>341.61301772110164</v>
+      </c>
+      <c r="K4">
         <f t="shared" si="2"/>
-        <v>5.9817053125418056</v>
-      </c>
-      <c r="F4">
-        <f t="shared" si="3"/>
-        <v>-1.1932321881532524</v>
-      </c>
-      <c r="G4">
-        <f>$B$21*B4*COS($A$2)</f>
-        <v>-53931.484725011505</v>
-      </c>
-      <c r="H4">
-        <f>$B$21*A4</f>
-        <v>271154.12422206986</v>
-      </c>
-      <c r="I4">
-        <f t="shared" si="4"/>
-        <v>-68.140333911287598</v>
-      </c>
-      <c r="J4">
-        <f t="shared" si="5"/>
-        <v>341.61301772110164</v>
-      </c>
-      <c r="K4">
-        <f>A4*PI()/180 - $A$2*PI()/180</f>
         <v>9.3479834750720414E-7</v>
       </c>
       <c r="L4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>-1.8401006303125911E-6</v>
       </c>
       <c r="M4" t="e">
-        <f t="shared" ref="M4:M19" si="10">SIN(A4/2)*SIN(A4/2)+COS($A$2*PI()/180)*COS(#REF!*PI()/180)*SIN(B4/2)*SIN(B4/2)</f>
+        <f t="shared" ref="M4" si="13">SIN(A4/2)*SIN(A4/2)+COS($A$2*PI()/180)*COS(#REF!*PI()/180)*SIN(B4/2)*SIN(B4/2)</f>
         <v>#REF!</v>
       </c>
       <c r="N4" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>#REF!</v>
       </c>
       <c r="O4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>6.7840479124914832E-13</v>
       </c>
       <c r="P4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>3.1415910062831536</v>
       </c>
     </row>
@@ -2641,59 +2641,59 @@
         <v>-83.445409060000003</v>
       </c>
       <c r="C5">
+        <f t="shared" si="3"/>
+        <v>15.222305503527423</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="4"/>
+        <v>-4.0651809861481194</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="5"/>
+        <v>15.222300859449946</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="6"/>
+        <v>-1.4593128933836563</v>
+      </c>
+      <c r="G5">
         <f t="shared" si="0"/>
-        <v>15.222305503527423</v>
-      </c>
-      <c r="D5">
+        <v>-53931.499919730741</v>
+      </c>
+      <c r="H5">
         <f t="shared" si="1"/>
-        <v>-4.0651809861481194</v>
-      </c>
-      <c r="E5">
+        <v>271154.65194912523</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="7"/>
+        <v>-83.335053146583959</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="8"/>
+        <v>869.34007308445871</v>
+      </c>
+      <c r="K5">
         <f t="shared" si="2"/>
-        <v>15.222300859449946</v>
-      </c>
-      <c r="F5">
-        <f t="shared" si="3"/>
-        <v>-1.4593128933836563</v>
-      </c>
-      <c r="G5">
-        <f>$B$21*B5*COS($A$2)</f>
-        <v>-53931.499919730741</v>
-      </c>
-      <c r="H5">
-        <f>$B$21*A5</f>
-        <v>271154.65194912523</v>
-      </c>
-      <c r="I5">
-        <f t="shared" si="4"/>
-        <v>-83.335053146583959</v>
-      </c>
-      <c r="J5">
-        <f t="shared" si="5"/>
-        <v>869.34007308445871</v>
-      </c>
-      <c r="K5">
-        <f>A5*PI()/180 - $A$2*PI()/180</f>
         <v>2.3788837705263077E-6</v>
       </c>
       <c r="L5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>-2.2504275372092764E-6</v>
       </c>
       <c r="M5" t="e">
-        <f t="shared" ref="M5:M20" si="11">SIN(A5/2)*SIN(A5/2)+COS($A$2*PI()/180)*COS(#REF!*PI()/180)*SIN(B5/2)*SIN(B5/2)</f>
+        <f t="shared" ref="M5" si="14">SIN(A5/2)*SIN(A5/2)+COS($A$2*PI()/180)*COS(#REF!*PI()/180)*SIN(B5/2)*SIN(B5/2)</f>
         <v>#REF!</v>
       </c>
       <c r="N5" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>#REF!</v>
       </c>
       <c r="O5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>2.1027113802954592E-12</v>
       </c>
       <c r="P5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>3.1415897534440176</v>
       </c>
     </row>
@@ -2705,59 +2705,59 @@
         <v>-83.445351349999996</v>
       </c>
       <c r="C6">
+        <f t="shared" si="3"/>
+        <v>25.846648295248688</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="4"/>
+        <v>-2.2457177106182051</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="5"/>
+        <v>25.846640409857269</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="6"/>
+        <v>-0.80616455237099371</v>
+      </c>
+      <c r="G6">
         <f t="shared" si="0"/>
-        <v>25.846648295248688</v>
-      </c>
-      <c r="D6">
+        <v>-53931.462621251478</v>
+      </c>
+      <c r="H6">
         <f t="shared" si="1"/>
-        <v>-2.2457177106182051</v>
-      </c>
-      <c r="E6">
+        <v>271155.25870129804</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="7"/>
+        <v>-46.036573883611709</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="8"/>
+        <v>1476.0922458954155</v>
+      </c>
+      <c r="K6">
         <f t="shared" si="2"/>
-        <v>25.846640409857269</v>
-      </c>
-      <c r="F6">
-        <f t="shared" si="3"/>
-        <v>-0.80616455237099371</v>
-      </c>
-      <c r="G6">
-        <f>$B$21*B6*COS($A$2)</f>
-        <v>-53931.462621251478</v>
-      </c>
-      <c r="H6">
-        <f>$B$21*A6</f>
-        <v>271155.25870129804</v>
-      </c>
-      <c r="I6">
-        <f t="shared" si="4"/>
-        <v>-46.036573883611709</v>
-      </c>
-      <c r="J6">
-        <f t="shared" si="5"/>
-        <v>1476.0922458954155</v>
-      </c>
-      <c r="K6">
-        <f>A6*PI()/180 - $A$2*PI()/180</f>
         <v>4.0392154878610143E-6</v>
       </c>
       <c r="L6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>-1.2431980258575948E-6</v>
       </c>
       <c r="M6" t="e">
-        <f t="shared" ref="M6:M21" si="12">SIN(A6/2)*SIN(A6/2)+COS($A$2*PI()/180)*COS(#REF!*PI()/180)*SIN(B6/2)*SIN(B6/2)</f>
+        <f t="shared" ref="M6" si="15">SIN(A6/2)*SIN(A6/2)+COS($A$2*PI()/180)*COS(#REF!*PI()/180)*SIN(B6/2)*SIN(B6/2)</f>
         <v>#REF!</v>
       </c>
       <c r="N6" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>#REF!</v>
       </c>
       <c r="O6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>4.2887577958318336E-12</v>
       </c>
       <c r="P6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>3.141588511726543</v>
       </c>
     </row>
@@ -2769,59 +2769,59 @@
         <v>-83.445251040000002</v>
       </c>
       <c r="C7">
+        <f t="shared" si="3"/>
+        <v>34.006161429218615</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="4"/>
+        <v>0.91682536915458035</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="5"/>
+        <v>34.006151054492634</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="6"/>
+        <v>0.3291206681196851</v>
+      </c>
+      <c r="G7">
         <f t="shared" si="0"/>
-        <v>34.006161429218615</v>
-      </c>
-      <c r="D7">
+        <v>-53931.397790018476</v>
+      </c>
+      <c r="H7">
         <f t="shared" si="1"/>
-        <v>0.91682536915458035</v>
-      </c>
-      <c r="E7">
+        <v>271155.7246879873</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="7"/>
+        <v>18.794659117702395</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="8"/>
+        <v>1942.078935157042</v>
+      </c>
+      <c r="K7">
         <f t="shared" si="2"/>
-        <v>34.006151054492634</v>
-      </c>
-      <c r="F7">
-        <f t="shared" si="3"/>
-        <v>0.3291206681196851</v>
-      </c>
-      <c r="G7">
-        <f>$B$21*B7*COS($A$2)</f>
-        <v>-53931.397790018476</v>
-      </c>
-      <c r="H7">
-        <f>$B$21*A7</f>
-        <v>271155.7246879873</v>
-      </c>
-      <c r="I7">
-        <f t="shared" si="4"/>
-        <v>18.794659117702395</v>
-      </c>
-      <c r="J7">
-        <f t="shared" si="5"/>
-        <v>1942.078935157042</v>
-      </c>
-      <c r="K7">
-        <f>A7*PI()/180 - $A$2*PI()/180</f>
         <v>5.3143530395205474E-6</v>
       </c>
       <c r="L7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>5.0754174685252451E-7</v>
       </c>
       <c r="M7" t="e">
-        <f t="shared" ref="M7:M22" si="13">SIN(A7/2)*SIN(A7/2)+COS($A$2*PI()/180)*COS(#REF!*PI()/180)*SIN(B7/2)*SIN(B7/2)</f>
+        <f t="shared" ref="M7" si="16">SIN(A7/2)*SIN(A7/2)+COS($A$2*PI()/180)*COS(#REF!*PI()/180)*SIN(B7/2)*SIN(B7/2)</f>
         <v>#REF!</v>
       </c>
       <c r="N7" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>#REF!</v>
       </c>
       <c r="O7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>7.0955785504186684E-12</v>
       </c>
       <c r="P7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>3.1415873260843545</v>
       </c>
     </row>
@@ -2833,59 +2833,59 @@
         <v>-83.445158199999995</v>
       </c>
       <c r="C8">
+        <f t="shared" si="3"/>
+        <v>44.958850355976061</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="4"/>
+        <v>3.8438565681359851</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="5"/>
+        <v>44.958836639763078</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="6"/>
+        <v>1.3798621683295236</v>
+      </c>
+      <c r="G8">
         <f t="shared" si="0"/>
-        <v>44.958850355976061</v>
-      </c>
-      <c r="D8">
+        <v>-53931.337786712014</v>
+      </c>
+      <c r="H8">
         <f t="shared" si="1"/>
-        <v>3.8438565681359851</v>
-      </c>
-      <c r="E8">
+        <v>271156.35019188287</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="7"/>
+        <v>78.797965579724405</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="8"/>
+        <v>2567.5828307284974</v>
+      </c>
+      <c r="K8">
         <f t="shared" si="2"/>
-        <v>44.958836639763078</v>
-      </c>
-      <c r="F8">
-        <f t="shared" si="3"/>
-        <v>1.3798621683295236</v>
-      </c>
-      <c r="G8">
-        <f>$B$21*B8*COS($A$2)</f>
-        <v>-53931.337786712014</v>
-      </c>
-      <c r="H8">
-        <f>$B$21*A8</f>
-        <v>271156.35019188287</v>
-      </c>
-      <c r="I8">
-        <f t="shared" si="4"/>
-        <v>78.797965579724405</v>
-      </c>
-      <c r="J8">
-        <f t="shared" si="5"/>
-        <v>2567.5828307284974</v>
-      </c>
-      <c r="K8">
-        <f>A8*PI()/180 - $A$2*PI()/180</f>
         <v>7.025997436849174E-6</v>
       </c>
       <c r="L8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>2.1279054245315621E-6</v>
       </c>
       <c r="M8" t="e">
-        <f t="shared" ref="M8:M23" si="14">SIN(A8/2)*SIN(A8/2)+COS($A$2*PI()/180)*COS(#REF!*PI()/180)*SIN(B8/2)*SIN(B8/2)</f>
+        <f t="shared" ref="M8" si="17">SIN(A8/2)*SIN(A8/2)+COS($A$2*PI()/180)*COS(#REF!*PI()/180)*SIN(B8/2)*SIN(B8/2)</f>
         <v>#REF!</v>
       </c>
       <c r="N8" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>#REF!</v>
       </c>
       <c r="O8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.2956227663526075E-11</v>
       </c>
       <c r="P8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>3.1415854546377409</v>
       </c>
     </row>
@@ -2897,59 +2897,59 @@
         <v>-83.445173089999997</v>
       </c>
       <c r="C9">
+        <f t="shared" si="3"/>
+        <v>54.659580040245615</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="4"/>
+        <v>3.3744091903108386</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="5"/>
+        <v>54.659563364498005</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="6"/>
+        <v>1.211340615768955</v>
+      </c>
+      <c r="G9">
         <f t="shared" si="0"/>
-        <v>54.659580040245615</v>
-      </c>
-      <c r="D9">
+        <v>-53931.34741024964</v>
+      </c>
+      <c r="H9">
         <f t="shared" si="1"/>
-        <v>3.3744091903108386</v>
-      </c>
-      <c r="E9">
+        <v>271156.90419686266</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="7"/>
+        <v>69.174427953839768</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="8"/>
+        <v>3121.5878105140291</v>
+      </c>
+      <c r="K9">
         <f t="shared" si="2"/>
-        <v>54.659563364498005</v>
-      </c>
-      <c r="F9">
-        <f t="shared" si="3"/>
-        <v>1.211340615768955</v>
-      </c>
-      <c r="G9">
-        <f>$B$21*B9*COS($A$2)</f>
-        <v>-53931.34741024964</v>
-      </c>
-      <c r="H9">
-        <f>$B$21*A9</f>
-        <v>271156.90419686266</v>
-      </c>
-      <c r="I9">
-        <f t="shared" si="4"/>
-        <v>69.174427953839768</v>
-      </c>
-      <c r="J9">
-        <f t="shared" si="5"/>
-        <v>3121.5878105140291</v>
-      </c>
-      <c r="K9">
-        <f>A9*PI()/180 - $A$2*PI()/180</f>
         <v>8.5419904252148626E-6</v>
       </c>
       <c r="L9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.8680258986325526E-6</v>
       </c>
       <c r="M9" t="e">
-        <f t="shared" ref="M9:M24" si="15">SIN(A9/2)*SIN(A9/2)+COS($A$2*PI()/180)*COS(#REF!*PI()/180)*SIN(B9/2)*SIN(B9/2)</f>
+        <f t="shared" ref="M9" si="18">SIN(A9/2)*SIN(A9/2)+COS($A$2*PI()/180)*COS(#REF!*PI()/180)*SIN(B9/2)*SIN(B9/2)</f>
         <v>#REF!</v>
       </c>
       <c r="N9" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>#REF!</v>
       </c>
       <c r="O9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.8715405667612792E-11</v>
       </c>
       <c r="P9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>3.1415840013286629</v>
       </c>
     </row>
@@ -2961,59 +2961,59 @@
         <v>-83.445242129999997</v>
       </c>
       <c r="C10">
+        <f t="shared" si="3"/>
+        <v>60.309590571631674</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="4"/>
+        <v>1.1977371312875844</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="5"/>
+        <v>60.309572172157878</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="6"/>
+        <v>0.42996197328682462</v>
+      </c>
+      <c r="G10">
         <f t="shared" si="0"/>
-        <v>60.309590571631674</v>
-      </c>
-      <c r="D10">
+        <v>-53931.392031407311</v>
+      </c>
+      <c r="H10">
         <f t="shared" si="1"/>
-        <v>1.1977371312875844</v>
-      </c>
-      <c r="E10">
+        <v>271157.22686681349</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="7"/>
+        <v>24.553270282922313</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="8"/>
+        <v>3444.2577613517642</v>
+      </c>
+      <c r="K10">
         <f t="shared" si="2"/>
-        <v>60.309572172157878</v>
-      </c>
-      <c r="F10">
-        <f t="shared" si="3"/>
-        <v>0.42996197328682462</v>
-      </c>
-      <c r="G10">
-        <f>$B$21*B10*COS($A$2)</f>
-        <v>-53931.392031407311</v>
-      </c>
-      <c r="H10">
-        <f>$B$21*A10</f>
-        <v>271157.22686681349</v>
-      </c>
-      <c r="I10">
-        <f t="shared" si="4"/>
-        <v>24.553270282922313</v>
-      </c>
-      <c r="J10">
-        <f t="shared" si="5"/>
-        <v>3444.2577613517642</v>
-      </c>
-      <c r="K10">
-        <f>A10*PI()/180 - $A$2*PI()/180</f>
         <v>9.4249524937861651E-6</v>
       </c>
       <c r="L10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>6.6305058332716271E-7</v>
       </c>
       <c r="M10" t="e">
-        <f t="shared" ref="M10:M25" si="16">SIN(A10/2)*SIN(A10/2)+COS($A$2*PI()/180)*COS(#REF!*PI()/180)*SIN(B10/2)*SIN(B10/2)</f>
+        <f t="shared" ref="M10" si="19">SIN(A10/2)*SIN(A10/2)+COS($A$2*PI()/180)*COS(#REF!*PI()/180)*SIN(B10/2)*SIN(B10/2)</f>
         <v>#REF!</v>
       </c>
       <c r="N10" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>#REF!</v>
       </c>
       <c r="O10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>2.2267151115526488E-11</v>
       </c>
       <c r="P10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>3.1415832159733323</v>
       </c>
     </row>
@@ -3025,59 +3025,59 @@
         <v>-83.44533629</v>
       </c>
       <c r="C11">
+        <f t="shared" si="3"/>
+        <v>61.320315919007136</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="4"/>
+        <v>-1.7709106248809188</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="5"/>
+        <v>61.320297211177497</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="6"/>
+        <v>-0.63571897948079936</v>
+      </c>
+      <c r="G11">
         <f t="shared" si="0"/>
-        <v>61.320315919007136</v>
-      </c>
-      <c r="D11">
+        <v>-53931.452887841355</v>
+      </c>
+      <c r="H11">
         <f t="shared" si="1"/>
-        <v>-1.7709106248809188</v>
-      </c>
-      <c r="E11">
+        <v>271157.28458895336</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="7"/>
+        <v>-36.303163760749158</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="8"/>
+        <v>3501.9799012225121</v>
+      </c>
+      <c r="K11">
         <f t="shared" si="2"/>
-        <v>61.320297211177497</v>
-      </c>
-      <c r="F11">
-        <f t="shared" si="3"/>
-        <v>-0.63571897948079936</v>
-      </c>
-      <c r="G11">
-        <f>$B$21*B11*COS($A$2)</f>
-        <v>-53931.452887841355</v>
-      </c>
-      <c r="H11">
-        <f>$B$21*A11</f>
-        <v>271157.28458895336</v>
-      </c>
-      <c r="I11">
-        <f t="shared" si="4"/>
-        <v>-36.303163760749158</v>
-      </c>
-      <c r="J11">
-        <f t="shared" si="5"/>
-        <v>3501.9799012225121</v>
-      </c>
-      <c r="K11">
-        <f>A11*PI()/180 - $A$2*PI()/180</f>
         <v>9.5829047910278575E-6</v>
       </c>
       <c r="L11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>-9.8035144069363866E-7</v>
       </c>
       <c r="M11" t="e">
-        <f t="shared" ref="M11:M26" si="17">SIN(A11/2)*SIN(A11/2)+COS($A$2*PI()/180)*COS(#REF!*PI()/180)*SIN(B11/2)*SIN(B11/2)</f>
+        <f t="shared" ref="M11" si="20">SIN(A11/2)*SIN(A11/2)+COS($A$2*PI()/180)*COS(#REF!*PI()/180)*SIN(B11/2)*SIN(B11/2)</f>
         <v>#REF!</v>
       </c>
       <c r="N11" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>#REF!</v>
       </c>
       <c r="O11">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>2.3088567243713618E-11</v>
       </c>
       <c r="P11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>3.1415830434769441</v>
       </c>
     </row>
@@ -3089,59 +3089,59 @@
         <v>-83.445402909999999</v>
       </c>
       <c r="C12">
+        <f t="shared" si="3"/>
+        <v>55.558623028317172</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="4"/>
+        <v>-3.8712856620958016</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="5"/>
+        <v>55.558606078286189</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="6"/>
+        <v>-1.3897086254997664</v>
+      </c>
+      <c r="G12">
         <f t="shared" si="0"/>
-        <v>55.558623028317172</v>
-      </c>
-      <c r="D12">
+        <v>-53931.49594493179</v>
+      </c>
+      <c r="H12">
         <f t="shared" si="1"/>
-        <v>-3.8712856620958016</v>
-      </c>
-      <c r="E12">
+        <v>271156.95554086549</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="7"/>
+        <v>-79.360254196217284</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="8"/>
+        <v>3172.9318133438937</v>
+      </c>
+      <c r="K12">
         <f t="shared" si="2"/>
-        <v>55.558606078286189</v>
-      </c>
-      <c r="F12">
-        <f t="shared" si="3"/>
-        <v>-1.3897086254997664</v>
-      </c>
-      <c r="G12">
-        <f>$B$21*B12*COS($A$2)</f>
-        <v>-53931.49594493179</v>
-      </c>
-      <c r="H12">
-        <f>$B$21*A12</f>
-        <v>271156.95554086549</v>
-      </c>
-      <c r="I12">
-        <f t="shared" si="4"/>
-        <v>-79.360254196217284</v>
-      </c>
-      <c r="J12">
-        <f t="shared" si="5"/>
-        <v>3172.9318133438937</v>
-      </c>
-      <c r="K12">
-        <f>A12*PI()/180 - $A$2*PI()/180</f>
         <v>8.6824894298676014E-6</v>
       </c>
       <c r="L12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>-2.1430897882979139E-6</v>
       </c>
       <c r="M12" t="e">
-        <f t="shared" ref="M12:M27" si="18">SIN(A12/2)*SIN(A12/2)+COS($A$2*PI()/180)*COS(#REF!*PI()/180)*SIN(B12/2)*SIN(B12/2)</f>
+        <f t="shared" ref="M12" si="21">SIN(A12/2)*SIN(A12/2)+COS($A$2*PI()/180)*COS(#REF!*PI()/180)*SIN(B12/2)*SIN(B12/2)</f>
         <v>#REF!</v>
       </c>
       <c r="N12" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>#REF!</v>
       </c>
       <c r="O12">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.9470281746818202E-11</v>
       </c>
       <c r="P12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>3.1415838285613522</v>
       </c>
     </row>
@@ -3153,59 +3153,59 @@
         <v>-83.445368830000007</v>
       </c>
       <c r="C13">
+        <f t="shared" si="3"/>
+        <v>44.240732789040429</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="4"/>
+        <v>-2.7968218186118978</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="5"/>
+        <v>44.240719291913422</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="6"/>
+        <v>-1.0039991218851865</v>
+      </c>
+      <c r="G13">
         <f t="shared" si="0"/>
-        <v>44.240732789040429</v>
-      </c>
-      <c r="D13">
+        <v>-53931.473918728821</v>
+      </c>
+      <c r="H13">
         <f t="shared" si="1"/>
-        <v>-2.7968218186118978</v>
-      </c>
-      <c r="E13">
+        <v>271156.30918046198</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="7"/>
+        <v>-57.334051227371674</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="8"/>
+        <v>2526.5714098350145</v>
+      </c>
+      <c r="K13">
         <f t="shared" si="2"/>
-        <v>44.240719291913422</v>
-      </c>
-      <c r="F13">
-        <f t="shared" si="3"/>
-        <v>-1.0039991218851865</v>
-      </c>
-      <c r="G13">
-        <f>$B$21*B13*COS($A$2)</f>
-        <v>-53931.473918728821</v>
-      </c>
-      <c r="H13">
-        <f>$B$21*A13</f>
-        <v>271156.30918046198</v>
-      </c>
-      <c r="I13">
-        <f t="shared" si="4"/>
-        <v>-57.334051227371674</v>
-      </c>
-      <c r="J13">
-        <f t="shared" si="5"/>
-        <v>2526.5714098350145</v>
-      </c>
-      <c r="K13">
-        <f>A13*PI()/180 - $A$2*PI()/180</f>
         <v>6.9137727659596138E-6</v>
       </c>
       <c r="L13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>-1.5482815793887994E-6</v>
       </c>
       <c r="M13" t="e">
-        <f t="shared" ref="M13:M28" si="19">SIN(A13/2)*SIN(A13/2)+COS($A$2*PI()/180)*COS(#REF!*PI()/180)*SIN(B13/2)*SIN(B13/2)</f>
+        <f t="shared" ref="M13" si="22">SIN(A13/2)*SIN(A13/2)+COS($A$2*PI()/180)*COS(#REF!*PI()/180)*SIN(B13/2)*SIN(B13/2)</f>
         <v>#REF!</v>
       </c>
       <c r="N13" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>#REF!</v>
       </c>
       <c r="O13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.2275688804059364E-11</v>
       </c>
       <c r="P13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>3.1415856462539788</v>
       </c>
     </row>
@@ -3217,59 +3217,59 @@
         <v>-83.445255560000007</v>
       </c>
       <c r="C14">
+        <f t="shared" si="3"/>
+        <v>33.867675303967459</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="4"/>
+        <v>0.77432018785907208</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="5"/>
+        <v>33.867664971491337</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="6"/>
+        <v>0.27796436065216479</v>
+      </c>
+      <c r="G14">
         <f t="shared" si="0"/>
-        <v>33.867675303967459</v>
-      </c>
-      <c r="D14">
+        <v>-53931.400711334143</v>
+      </c>
+      <c r="H14">
         <f t="shared" si="1"/>
-        <v>0.77432018785907208</v>
-      </c>
-      <c r="E14">
+        <v>271155.71677909739</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="7"/>
+        <v>15.873343450948596</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="8"/>
+        <v>1934.1700452496298</v>
+      </c>
+      <c r="K14">
         <f t="shared" si="2"/>
-        <v>33.867664971491337</v>
-      </c>
-      <c r="F14">
-        <f t="shared" si="3"/>
-        <v>0.27796436065216479</v>
-      </c>
-      <c r="G14">
-        <f>$B$21*B14*COS($A$2)</f>
-        <v>-53931.400711334143</v>
-      </c>
-      <c r="H14">
-        <f>$B$21*A14</f>
-        <v>271155.71677909739</v>
-      </c>
-      <c r="I14">
-        <f t="shared" si="4"/>
-        <v>15.873343450948596</v>
-      </c>
-      <c r="J14">
-        <f t="shared" si="5"/>
-        <v>1934.1700452496298</v>
-      </c>
-      <c r="K14">
-        <f>A14*PI()/180 - $A$2*PI()/180</f>
         <v>5.2927109567280084E-6</v>
       </c>
       <c r="L14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>4.2865286453697138E-7</v>
       </c>
       <c r="M14" t="e">
-        <f t="shared" ref="M14:M29" si="20">SIN(A14/2)*SIN(A14/2)+COS($A$2*PI()/180)*COS(#REF!*PI()/180)*SIN(B14/2)*SIN(B14/2)</f>
+        <f t="shared" ref="M14" si="23">SIN(A14/2)*SIN(A14/2)+COS($A$2*PI()/180)*COS(#REF!*PI()/180)*SIN(B14/2)*SIN(B14/2)</f>
         <v>#REF!</v>
       </c>
       <c r="N14" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>#REF!</v>
       </c>
       <c r="O14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>7.0281565031639903E-12</v>
       </c>
       <c r="P14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>3.1415873514556933</v>
       </c>
     </row>
@@ -3281,59 +3281,59 @@
         <v>-83.445160020000003</v>
       </c>
       <c r="C15">
+        <f t="shared" si="3"/>
+        <v>22.483892472312572</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="4"/>
+        <v>3.7864761630679187</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="5"/>
+        <v>22.483885612843181</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="6"/>
+        <v>1.3592638320614137</v>
+      </c>
+      <c r="G15">
         <f t="shared" si="0"/>
-        <v>22.483892472312572</v>
-      </c>
-      <c r="D15">
+        <v>-53931.338962993992</v>
+      </c>
+      <c r="H15">
         <f t="shared" si="1"/>
-        <v>3.7864761630679187</v>
-      </c>
-      <c r="E15">
+        <v>271155.06665559299</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="7"/>
+        <v>77.621683602046687</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="8"/>
+        <v>1284.0465408517048</v>
+      </c>
+      <c r="K15">
         <f t="shared" si="2"/>
-        <v>22.483885612843181</v>
-      </c>
-      <c r="F15">
-        <f t="shared" si="3"/>
-        <v>1.3592638320614137</v>
-      </c>
-      <c r="G15">
-        <f>$B$21*B15*COS($A$2)</f>
-        <v>-53931.338962993992</v>
-      </c>
-      <c r="H15">
-        <f>$B$21*A15</f>
-        <v>271155.06665559299</v>
-      </c>
-      <c r="I15">
-        <f t="shared" si="4"/>
-        <v>77.621683602046687</v>
-      </c>
-      <c r="J15">
-        <f t="shared" si="5"/>
-        <v>1284.0465408517048</v>
-      </c>
-      <c r="K15">
-        <f>A15*PI()/180 - $A$2*PI()/180</f>
         <v>3.5136968501436883E-6</v>
       </c>
       <c r="L15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>2.0961404316732768E-6</v>
       </c>
       <c r="M15" t="e">
-        <f t="shared" ref="M15:M30" si="21">SIN(A15/2)*SIN(A15/2)+COS($A$2*PI()/180)*COS(#REF!*PI()/180)*SIN(B15/2)*SIN(B15/2)</f>
+        <f t="shared" ref="M15" si="24">SIN(A15/2)*SIN(A15/2)+COS($A$2*PI()/180)*COS(#REF!*PI()/180)*SIN(B15/2)*SIN(B15/2)</f>
         <v>#REF!</v>
       </c>
       <c r="N15" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>#REF!</v>
       </c>
       <c r="O15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>3.6833597989740671E-12</v>
       </c>
       <c r="P15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>3.141588815173558</v>
       </c>
     </row>
@@ -3345,59 +3345,59 @@
         <v>-83.445127650000003</v>
       </c>
       <c r="C16">
+        <f t="shared" si="3"/>
+        <v>10.311632187416151</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="4"/>
+        <v>4.807027648438722</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="5"/>
+        <v>10.311629041505121</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="6"/>
+        <v>1.7256199539753398</v>
+      </c>
+      <c r="G16">
         <f t="shared" si="0"/>
-        <v>10.311632187416151</v>
-      </c>
-      <c r="D16">
+        <v>-53931.318041979022</v>
+      </c>
+      <c r="H16">
         <f t="shared" si="1"/>
-        <v>4.807027648438722</v>
-      </c>
-      <c r="E16">
+        <v>271154.37150244135</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="7"/>
+        <v>98.54269857169129</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="8"/>
+        <v>588.89338921289891</v>
+      </c>
+      <c r="K16">
         <f t="shared" si="2"/>
-        <v>10.311629041505121</v>
-      </c>
-      <c r="F16">
-        <f t="shared" si="3"/>
-        <v>1.7256199539753398</v>
-      </c>
-      <c r="G16">
-        <f>$B$21*B16*COS($A$2)</f>
-        <v>-53931.318041979022</v>
-      </c>
-      <c r="H16">
-        <f>$B$21*A16</f>
-        <v>271154.37150244135</v>
-      </c>
-      <c r="I16">
-        <f t="shared" si="4"/>
-        <v>98.54269857169129</v>
-      </c>
-      <c r="J16">
-        <f t="shared" si="5"/>
-        <v>588.89338921289891</v>
-      </c>
-      <c r="K16">
-        <f>A16*PI()/180 - $A$2*PI()/180</f>
         <v>1.6114624983298853E-6</v>
       </c>
       <c r="L16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>2.6611035108814463E-6</v>
       </c>
       <c r="M16" t="e">
-        <f t="shared" ref="M16:M31" si="22">SIN(A16/2)*SIN(A16/2)+COS($A$2*PI()/180)*COS(#REF!*PI()/180)*SIN(B16/2)*SIN(B16/2)</f>
+        <f t="shared" ref="M16" si="25">SIN(A16/2)*SIN(A16/2)+COS($A$2*PI()/180)*COS(#REF!*PI()/180)*SIN(B16/2)*SIN(B16/2)</f>
         <v>#REF!</v>
       </c>
       <c r="N16" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>#REF!</v>
       </c>
       <c r="O16">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.6111339025235674E-12</v>
       </c>
       <c r="P16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>3.1415901149808021</v>
       </c>
     </row>
@@ -3409,59 +3409,59 @@
         <v>-83.445170689999998</v>
       </c>
       <c r="C17">
+        <f t="shared" si="3"/>
+        <v>2.806577676951469</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="4"/>
+        <v>3.450075658168128</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="5"/>
+        <v>2.8065768207103314</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="6"/>
+        <v>1.2385032568708385</v>
+      </c>
+      <c r="G17">
         <f t="shared" si="0"/>
-        <v>2.806577676951469</v>
-      </c>
-      <c r="D17">
+        <v>-53931.345859108587</v>
+      </c>
+      <c r="H17">
         <f t="shared" si="1"/>
-        <v>3.450075658168128</v>
-      </c>
-      <c r="E17">
+        <v>271153.94289163494</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="7"/>
+        <v>70.725569006754085</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="8"/>
+        <v>160.28258280130103</v>
+      </c>
+      <c r="K17">
         <f t="shared" si="2"/>
-        <v>2.8065768207103314</v>
-      </c>
-      <c r="F17">
-        <f t="shared" si="3"/>
-        <v>1.2385032568708385</v>
-      </c>
-      <c r="G17">
-        <f>$B$21*B17*COS($A$2)</f>
-        <v>-53931.345859108587</v>
-      </c>
-      <c r="H17">
-        <f>$B$21*A17</f>
-        <v>271153.94289163494</v>
-      </c>
-      <c r="I17">
-        <f t="shared" si="4"/>
-        <v>70.725569006754085</v>
-      </c>
-      <c r="J17">
-        <f t="shared" si="5"/>
-        <v>160.28258280130103</v>
-      </c>
-      <c r="K17">
-        <f>A17*PI()/180 - $A$2*PI()/180</f>
         <v>4.3860124110395304E-7</v>
       </c>
       <c r="L17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.9099138006684058E-6</v>
       </c>
       <c r="M17" t="e">
-        <f t="shared" ref="M17:M32" si="23">SIN(A17/2)*SIN(A17/2)+COS($A$2*PI()/180)*COS(#REF!*PI()/180)*SIN(B17/2)*SIN(B17/2)</f>
+        <f t="shared" ref="M17" si="26">SIN(A17/2)*SIN(A17/2)+COS($A$2*PI()/180)*COS(#REF!*PI()/180)*SIN(B17/2)*SIN(B17/2)</f>
         <v>#REF!</v>
       </c>
       <c r="N17" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>#REF!</v>
       </c>
       <c r="O17">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>5.4359818440959516E-13</v>
       </c>
       <c r="P17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>3.1415911790075683</v>
       </c>
     </row>
@@ -3473,59 +3473,59 @@
         <v>-83.445238810000006</v>
       </c>
       <c r="C18">
+        <f t="shared" si="3"/>
+        <v>0.48358461390517987</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="4"/>
+        <v>1.3024090782064124</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="5"/>
+        <v>0.48358446637139046</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="6"/>
+        <v>0.46753696004256801</v>
+      </c>
+      <c r="G18">
         <f t="shared" si="0"/>
-        <v>0.48358461390517987</v>
-      </c>
-      <c r="D18">
+        <v>-53931.389885662189</v>
+      </c>
+      <c r="H18">
         <f t="shared" si="1"/>
-        <v>1.3024090782064124</v>
-      </c>
-      <c r="E18">
+        <v>271153.81022638537</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="7"/>
+        <v>26.699015405029058</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="8"/>
+        <v>27.61733322404325</v>
+      </c>
+      <c r="K18">
         <f t="shared" si="2"/>
-        <v>0.48358446637139046</v>
-      </c>
-      <c r="F18">
-        <f t="shared" si="3"/>
-        <v>0.46753696004256801</v>
-      </c>
-      <c r="G18">
-        <f>$B$21*B18*COS($A$2)</f>
-        <v>-53931.389885662189</v>
-      </c>
-      <c r="H18">
-        <f>$B$21*A18</f>
-        <v>271153.81022638537</v>
-      </c>
-      <c r="I18">
-        <f t="shared" si="4"/>
-        <v>26.699015405029058</v>
-      </c>
-      <c r="J18">
-        <f t="shared" si="5"/>
-        <v>27.61733322404325</v>
-      </c>
-      <c r="K18">
-        <f>A18*PI()/180 - $A$2*PI()/180</f>
         <v>7.5572756719211043E-8</v>
       </c>
       <c r="L18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>7.2099551418070007E-7</v>
       </c>
       <c r="M18" t="e">
-        <f t="shared" ref="M18:M33" si="24">SIN(A18/2)*SIN(A18/2)+COS($A$2*PI()/180)*COS(#REF!*PI()/180)*SIN(B18/2)*SIN(B18/2)</f>
+        <f t="shared" ref="M18" si="27">SIN(A18/2)*SIN(A18/2)+COS($A$2*PI()/180)*COS(#REF!*PI()/180)*SIN(B18/2)*SIN(B18/2)</f>
         <v>#REF!</v>
       </c>
       <c r="N18" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>#REF!</v>
       </c>
       <c r="O18">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>7.204105175845107E-14</v>
       </c>
       <c r="P18">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>3.1415921167805094</v>
       </c>
     </row>
